--- a/banka/ziraat_katilim.xlsx
+++ b/banka/ziraat_katilim.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Personel Ünvanı</t>
   </si>
@@ -62,6 +63,48 @@
   </si>
   <si>
     <t xml:space="preserve">Hesap Döviz Kodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARİ KODU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICI UNVANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANKA NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBE NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HESAP NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERGI NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÇIKLAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICI EMAIL ADRESI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPSIYON GÜN SAYISI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÖDEME SEBEBİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alıcı Yerleşik Bilgisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ödeme Amacı Kategorisi</t>
   </si>
 </sst>
 </file>
@@ -125,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -140,6 +183,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -170,12 +220,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,6 +243,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -443,69 +501,69 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="2" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -518,4 +576,86 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="33.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="28.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="20.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffSayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>